--- a/biology/Zoologie/Aquatopia_(Anvers)/Aquatopia_(Anvers).xlsx
+++ b/biology/Zoologie/Aquatopia_(Anvers)/Aquatopia_(Anvers).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquatopia était une attraction éducative populaire dans le centre d'Anvers, en Belgique. On y trouvait autrefois un ensemble d'aquariums, ainsi que des reconstitutions d'autres habitats marins, notamment des marécages, des forêts pluviales, des deltas fluviaux et des récifs coralliens. Aquatopia a également inclus un certain nombre d'expositions spéciales couvrant les requins, le nautilus, et les mystères des profondeurs. L'attraction à plusieurs étages était située sur la Koningin Astridplein, en face de la gare Anvers-Centraal. Elle avait 1 000 000 litres (220 000 imp gal; 260 000 gal US) d'eau.
 Bien que l'entrée du Zoo d'Anvers soit également située tout près, face à la même place (Astridplein), le zoo n'était pas affilié à Aquatopia.
-Aquatopia ferme le 8 janvier 2017[1].
+Aquatopia ferme le 8 janvier 2017.
 </t>
         </is>
       </c>
